--- a/bots/crawl_ch/output/bread_coop_2023-02-14.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-14.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4742,45 +4742,45 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5688323</t>
+          <t>3041028</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
+          <t>Madeleines Nature</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature/p/3041028</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4800,56 +4800,56 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 25% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Madeleines Nature 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3041028</t>
+          <t>5688323</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Madeleines Nature</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-nature/p/3041028</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E63" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4869,18 +4869,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Madeleines Nature 2.80 Schweizer Franken</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 25% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -5947,45 +5947,45 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3726467</t>
+          <t>3041956</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St</t>
+          <t>Linzertorte</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E79" t="n">
         <v>4.5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6005,56 +6005,56 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
+          <t>Linzertorte 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3041956</t>
+          <t>3726467</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Linzertorte</t>
+          <t>Pasquier Milchbrötchen 10St</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-milchbroetchen-10st/p/3726467</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E80" t="n">
         <v>4.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6074,18 +6074,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Linzertorte 3.95 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8004,24 +8004,24 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6628848</t>
+          <t>5671230</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake</t>
+          <t>Betty Bossi Pizzateig Ø28cm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -8037,12 +8037,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8062,39 +8062,43 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
+          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5671230</t>
+          <t>4019115</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm</t>
+          <t>Choco Brownies 8 Stück</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig-28cm/p/5671230</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E109" t="n">
         <v>4.5</v>
@@ -8106,12 +8110,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8121,7 +8125,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8131,46 +8135,42 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig Ø28cm 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Choco Brownies 8 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4019115</t>
+          <t>6832128</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -8179,12 +8179,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8204,42 +8204,46 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6832128</t>
+          <t>6628848</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
+          <t>Betty Bossi Tiroler Cake</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-tiroler-cake/p/6628848</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -8248,12 +8252,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8263,7 +8267,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8273,22 +8277,18 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Tiroler Cake 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8633,7 +8633,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9132,28 +9132,28 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
@@ -9165,12 +9165,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9190,39 +9190,39 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -9233,17 +9233,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9263,18 +9263,22 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9343,45 +9347,45 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E127" t="n">
         <v>4.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9391,7 +9395,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9401,22 +9405,18 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10268,45 +10268,45 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4950628</t>
+          <t>6617154</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
+          <t>Prix Garantie Roggen Knäckebrot</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E140" t="n">
         <v>4.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.38/100g</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
+          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10341,45 +10341,45 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6617154</t>
+          <t>4950628</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/prix-garantie-roggen-knaeckebrot/p/6617154</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-sandwich-schokolade-haselnusscreme/p/4950628</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E141" t="n">
         <v>4.5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.38/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10399,12 +10399,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggen Knäckebrot 0.95 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Schokolade &amp;amp; Haselnusscrème 33% ab 3 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -10982,31 +10982,31 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E150" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -11015,12 +11015,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11040,22 +11040,22 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11124,31 +11124,31 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -11157,12 +11157,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11182,22 +11182,22 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11550,187 +11550,183 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6734419</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11740,7 +11736,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11750,42 +11746,42 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6734419</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Prix Garantie MiniReiswaffeln</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -11794,12 +11790,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11809,7 +11805,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11819,18 +11815,22 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
+          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -11972,45 +11972,45 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>6117087</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12020,7 +12020,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12030,60 +12030,60 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6117087</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12103,60 +12103,56 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pandorino 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12166,7 +12162,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12176,18 +12172,22 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr"/>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12329,28 +12329,28 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>6338742</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Country Cracker Nature Stange</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E169" t="n">
         <v>4.5</v>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12387,39 +12387,39 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
+          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6338742</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E170" t="n">
         <v>4.5</v>
@@ -12431,12 +12431,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12456,18 +12456,18 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12954,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13169,45 +13169,45 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>9</v>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,60 +13227,56 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>9</v>
       </c>
       <c r="E182" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13290,7 +13286,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13300,18 +13296,22 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -13950,7 +13950,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14161,7 +14161,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14307,7 +14307,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14445,45 +14445,45 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14508,55 +14508,51 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14566,7 +14562,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14581,51 +14577,55 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N200" t="inlineStr"/>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E201" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14645,60 +14645,56 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E202" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14708,7 +14704,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14718,18 +14714,22 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N202" t="inlineStr"/>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14798,7 +14798,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15084,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15506,45 +15506,45 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>0.49/100g</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15564,60 +15564,56 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Gugelhopf 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.49/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15627,7 +15623,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15637,18 +15633,22 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -15867,45 +15867,45 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E219" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15925,56 +15925,56 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E220" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15984,7 +15984,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15994,18 +15994,18 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16143,7 +16143,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16356,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16425,7 +16425,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16494,45 +16494,43 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>19</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16542,7 +16540,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16552,56 +16550,56 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E229" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16611,7 +16609,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16621,60 +16619,56 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E230" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16684,7 +16678,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16694,54 +16688,60 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>3</v>
+      </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16761,18 +16761,18 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -16845,45 +16845,45 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D233" t="n">
         <v>3</v>
       </c>
       <c r="E233" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16903,56 +16903,60 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D234" t="n">
         <v>3</v>
       </c>
       <c r="E234" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16962,7 +16966,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16972,22 +16976,18 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17478,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17754,7 +17754,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17823,7 +17823,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -17957,7 +17957,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18239,7 +18239,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18308,7 +18308,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18377,7 +18377,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18450,45 +18450,45 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18498,7 +18498,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18508,56 +18508,60 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E257" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18567,7 +18571,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18577,56 +18581,56 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18636,7 +18640,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18646,60 +18650,60 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E259" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18709,7 +18713,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18719,22 +18723,18 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -18803,45 +18803,45 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18861,56 +18861,56 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18920,7 +18920,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18930,56 +18930,56 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18999,22 +18999,22 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19152,7 +19152,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19294,7 +19294,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19434,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -19854,45 +19854,45 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D276" t="n">
+        <v>8</v>
+      </c>
+      <c r="E276" t="n">
         <v>4</v>
       </c>
-      <c r="E276" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19902,7 +19902,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19912,56 +19912,56 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19971,7 +19971,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19981,18 +19981,18 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20268,7 +20268,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20410,45 +20410,43 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20458,7 +20456,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20468,56 +20466,56 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E285" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20527,7 +20525,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20537,54 +20535,56 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20604,18 +20604,18 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -20822,24 +20822,24 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20880,35 +20880,35 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -20919,17 +20919,17 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20949,56 +20949,56 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D292" t="n">
         <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21008,7 +21008,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21018,56 +21018,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D293" t="n">
         <v>3</v>
       </c>
       <c r="E293" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21077,7 +21081,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21087,22 +21091,18 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22021,7 +22021,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22094,7 +22094,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22163,7 +22163,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22232,7 +22232,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22374,7 +22374,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22447,7 +22447,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22585,7 +22585,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22792,7 +22792,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22930,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -22999,7 +22999,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-14 12:58:31</t>
+          <t>2023-02-14 20:49:50</t>
         </is>
       </c>
     </row>
